--- a/report/summary_USDJPY_M30_2020-2023_0.xlsx
+++ b/report/summary_USDJPY_M30_2020-2023_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="16">
   <si>
     <t>symbol</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O92"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -1849,39 +1849,39 @@
         <v>2023</v>
       </c>
       <c r="F31">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G31">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="H31">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="I31">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J31">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="K31">
-        <v>-44.673</v>
+        <v>-42.321</v>
       </c>
       <c r="L31">
-        <v>948</v>
+        <v>1725</v>
       </c>
       <c r="M31">
-        <v>-3.536000000000001</v>
+        <v>-2.540999999999997</v>
       </c>
       <c r="N31">
-        <v>-48.209</v>
+        <v>-44.86199999999999</v>
       </c>
       <c r="O31">
-        <v>0.2689873417721519</v>
+        <v>0.4307246376811594</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -1896,39 +1896,39 @@
         <v>2023</v>
       </c>
       <c r="F32">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G32">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="H32">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K32">
-        <v>-46.99899999999971</v>
+        <v>-44.673</v>
       </c>
       <c r="L32">
-        <v>1108</v>
+        <v>948</v>
       </c>
       <c r="M32">
-        <v>-1.739000000000004</v>
+        <v>-3.536000000000001</v>
       </c>
       <c r="N32">
-        <v>-48.73799999999972</v>
+        <v>-48.209</v>
       </c>
       <c r="O32">
-        <v>0.2608303249097473</v>
+        <v>0.2689873417721519</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -1943,13 +1943,13 @@
         <v>2023</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G33">
-        <v>0.6000000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="H33">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1958,24 +1958,24 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>-46.20500000000079</v>
+        <v>-46.99899999999971</v>
       </c>
       <c r="L33">
-        <v>8887</v>
+        <v>1108</v>
       </c>
       <c r="M33">
-        <v>-2.75</v>
+        <v>-1.739000000000004</v>
       </c>
       <c r="N33">
-        <v>-48.95500000000079</v>
+        <v>-48.73799999999972</v>
       </c>
       <c r="O33">
-        <v>0.3707662878361652</v>
+        <v>0.2608303249097473</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -1990,39 +1990,39 @@
         <v>2023</v>
       </c>
       <c r="F34">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="H34">
         <v>0.45</v>
       </c>
       <c r="I34">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>-48.09200000000021</v>
+        <v>-46.20500000000079</v>
       </c>
       <c r="L34">
-        <v>2375</v>
+        <v>8887</v>
       </c>
       <c r="M34">
-        <v>-2.478999999999985</v>
+        <v>-2.75</v>
       </c>
       <c r="N34">
-        <v>-50.5710000000002</v>
+        <v>-48.95500000000079</v>
       </c>
       <c r="O34">
-        <v>0.4282105263157895</v>
+        <v>0.3707662878361652</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -2037,39 +2037,39 @@
         <v>2023</v>
       </c>
       <c r="F35">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G35">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H35">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="I35">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J35">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="K35">
-        <v>-50.66699999999958</v>
+        <v>-47.01899999999991</v>
       </c>
       <c r="L35">
-        <v>925</v>
+        <v>1977</v>
       </c>
       <c r="M35">
-        <v>-0.9689999999999941</v>
+        <v>-2.478999999999985</v>
       </c>
       <c r="N35">
-        <v>-51.63599999999957</v>
+        <v>-49.49799999999989</v>
       </c>
       <c r="O35">
-        <v>0.267027027027027</v>
+        <v>0.3601416287303996</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -2084,39 +2084,39 @@
         <v>2023</v>
       </c>
       <c r="F36">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G36">
-        <v>3.600000000000001</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="H36">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="I36">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>-51.60199999999945</v>
+        <v>-47.3130000000004</v>
       </c>
       <c r="L36">
-        <v>1011</v>
+        <v>6217</v>
       </c>
       <c r="M36">
-        <v>-0.7410000000000139</v>
+        <v>-2.75</v>
       </c>
       <c r="N36">
-        <v>-52.34299999999946</v>
+        <v>-50.0630000000004</v>
       </c>
       <c r="O36">
-        <v>0.1384767556874382</v>
+        <v>0.370435901560238</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
@@ -2131,39 +2131,39 @@
         <v>2023</v>
       </c>
       <c r="F37">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G37">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="I37">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J37">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="K37">
-        <v>-50.40899999999998</v>
+        <v>-48.09200000000021</v>
       </c>
       <c r="L37">
-        <v>2699</v>
+        <v>2375</v>
       </c>
       <c r="M37">
-        <v>-2.540999999999997</v>
+        <v>-2.478999999999985</v>
       </c>
       <c r="N37">
-        <v>-52.94999999999997</v>
+        <v>-50.5710000000002</v>
       </c>
       <c r="O37">
-        <v>0.3560577991848833</v>
+        <v>0.4282105263157895</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -2181,36 +2181,36 @@
         <v>70</v>
       </c>
       <c r="G38">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="H38">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I38">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="J38">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K38">
-        <v>-52.19900000000005</v>
+        <v>-50.66699999999958</v>
       </c>
       <c r="L38">
-        <v>1563</v>
+        <v>925</v>
       </c>
       <c r="M38">
-        <v>-2.75</v>
+        <v>-0.9689999999999941</v>
       </c>
       <c r="N38">
-        <v>-54.94900000000005</v>
+        <v>-51.63599999999957</v>
       </c>
       <c r="O38">
-        <v>0.4120281509916827</v>
+        <v>0.267027027027027</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -2225,10 +2225,10 @@
         <v>2023</v>
       </c>
       <c r="F39">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G39">
-        <v>3.7</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="H39">
         <v>0.05</v>
@@ -2240,24 +2240,24 @@
         <v>0.2</v>
       </c>
       <c r="K39">
-        <v>-54.60899999999948</v>
+        <v>-51.60199999999945</v>
       </c>
       <c r="L39">
-        <v>943</v>
+        <v>1011</v>
       </c>
       <c r="M39">
-        <v>-0.9279999999999973</v>
+        <v>-0.7410000000000139</v>
       </c>
       <c r="N39">
-        <v>-55.53699999999948</v>
+        <v>-52.34299999999946</v>
       </c>
       <c r="O39">
-        <v>0.1304347826086956</v>
+        <v>0.1384767556874382</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -2272,39 +2272,39 @@
         <v>2023</v>
       </c>
       <c r="F40">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G40">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H40">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K40">
-        <v>-55.19999999999976</v>
+        <v>-50.40899999999998</v>
       </c>
       <c r="L40">
-        <v>1099</v>
+        <v>2699</v>
       </c>
       <c r="M40">
-        <v>-1.655000000000001</v>
+        <v>-2.540999999999997</v>
       </c>
       <c r="N40">
-        <v>-56.85499999999976</v>
+        <v>-52.94999999999997</v>
       </c>
       <c r="O40">
-        <v>0.1737943585077343</v>
+        <v>0.3560577991848833</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -2319,39 +2319,39 @@
         <v>2023</v>
       </c>
       <c r="F41">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G41">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H41">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="I41">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="J41">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="K41">
-        <v>-56.64599999999955</v>
+        <v>-52.19900000000005</v>
       </c>
       <c r="L41">
-        <v>2173</v>
+        <v>1563</v>
       </c>
       <c r="M41">
-        <v>-3.330000000000013</v>
+        <v>-2.75</v>
       </c>
       <c r="N41">
-        <v>-59.97599999999956</v>
+        <v>-54.94900000000005</v>
       </c>
       <c r="O41">
-        <v>0.3423838011965025</v>
+        <v>0.4120281509916827</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -2369,36 +2369,36 @@
         <v>50</v>
       </c>
       <c r="G42">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H42">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K42">
-        <v>-57.35199999999979</v>
+        <v>-54.60899999999948</v>
       </c>
       <c r="L42">
-        <v>2187</v>
+        <v>943</v>
       </c>
       <c r="M42">
-        <v>-3.330000000000013</v>
+        <v>-0.9279999999999973</v>
       </c>
       <c r="N42">
-        <v>-60.6819999999998</v>
+        <v>-55.53699999999948</v>
       </c>
       <c r="O42">
-        <v>0.3475080018289895</v>
+        <v>0.1304347826086956</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -2413,39 +2413,39 @@
         <v>2023</v>
       </c>
       <c r="F43">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G43">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="H43">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I43">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>-59.43000000000046</v>
+        <v>-55.19999999999976</v>
       </c>
       <c r="L43">
-        <v>1390</v>
+        <v>1099</v>
       </c>
       <c r="M43">
-        <v>-3.456999999999994</v>
+        <v>-1.655000000000001</v>
       </c>
       <c r="N43">
-        <v>-62.88700000000046</v>
+        <v>-56.85499999999976</v>
       </c>
       <c r="O43">
-        <v>0.2733812949640288</v>
+        <v>0.1737943585077343</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -2460,39 +2460,39 @@
         <v>2023</v>
       </c>
       <c r="F44">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G44">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H44">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="I44">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="J44">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="K44">
-        <v>-59.34899999999988</v>
+        <v>-56.38499999999981</v>
       </c>
       <c r="L44">
-        <v>1024</v>
+        <v>1099</v>
       </c>
       <c r="M44">
-        <v>-3.558999999999997</v>
+        <v>-0.7120000000000033</v>
       </c>
       <c r="N44">
-        <v>-62.90799999999987</v>
+        <v>-57.09699999999981</v>
       </c>
       <c r="O44">
-        <v>0.2890625</v>
+        <v>0.1037306642402184</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -2507,39 +2507,39 @@
         <v>2023</v>
       </c>
       <c r="F45">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G45">
-        <v>3.100000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="H45">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="I45">
+        <v>0.45</v>
+      </c>
+      <c r="J45">
         <v>0.35</v>
       </c>
-      <c r="J45">
-        <v>0.3</v>
-      </c>
       <c r="K45">
-        <v>-61.49500000000023</v>
+        <v>-56.64599999999955</v>
       </c>
       <c r="L45">
-        <v>1284</v>
+        <v>2173</v>
       </c>
       <c r="M45">
-        <v>-3.536000000000001</v>
+        <v>-3.330000000000013</v>
       </c>
       <c r="N45">
-        <v>-65.03100000000023</v>
+        <v>-59.97599999999956</v>
       </c>
       <c r="O45">
-        <v>0.2897196261682243</v>
+        <v>0.3423838011965025</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -2554,39 +2554,39 @@
         <v>2023</v>
       </c>
       <c r="F46">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G46">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H46">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="I46">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>-63.28900000000007</v>
+        <v>-57.35199999999979</v>
       </c>
       <c r="L46">
-        <v>1144</v>
+        <v>2187</v>
       </c>
       <c r="M46">
-        <v>-2.75</v>
+        <v>-3.330000000000013</v>
       </c>
       <c r="N46">
-        <v>-66.03900000000007</v>
+        <v>-60.6819999999998</v>
       </c>
       <c r="O46">
-        <v>0.2456293706293706</v>
+        <v>0.3475080018289895</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
@@ -2601,10 +2601,10 @@
         <v>2023</v>
       </c>
       <c r="F47">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G47">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H47">
         <v>0.2</v>
@@ -2613,27 +2613,27 @@
         <v>0.5</v>
       </c>
       <c r="J47">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="K47">
-        <v>-62.62599999999973</v>
+        <v>-59.43000000000046</v>
       </c>
       <c r="L47">
-        <v>1216</v>
+        <v>1390</v>
       </c>
       <c r="M47">
-        <v>-3.536000000000001</v>
+        <v>-3.456999999999994</v>
       </c>
       <c r="N47">
-        <v>-66.16199999999974</v>
+        <v>-62.88700000000046</v>
       </c>
       <c r="O47">
-        <v>0.2985197368421053</v>
+        <v>0.2733812949640288</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -2651,36 +2651,36 @@
         <v>100</v>
       </c>
       <c r="G48">
-        <v>3.100000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="H48">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K48">
-        <v>-66.16600000000024</v>
+        <v>-59.34899999999988</v>
       </c>
       <c r="L48">
-        <v>1278</v>
+        <v>1024</v>
       </c>
       <c r="M48">
-        <v>-2.75</v>
+        <v>-3.558999999999997</v>
       </c>
       <c r="N48">
-        <v>-68.91600000000024</v>
+        <v>-62.90799999999987</v>
       </c>
       <c r="O48">
-        <v>0.230829420970266</v>
+        <v>0.2890625</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -2695,39 +2695,39 @@
         <v>2023</v>
       </c>
       <c r="F49">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G49">
-        <v>1.4</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="H49">
+        <v>0.2</v>
+      </c>
+      <c r="I49">
         <v>0.35</v>
       </c>
-      <c r="I49">
-        <v>0.45</v>
-      </c>
       <c r="J49">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="K49">
-        <v>-69.7579999999999</v>
+        <v>-61.49500000000023</v>
       </c>
       <c r="L49">
-        <v>3704</v>
+        <v>1284</v>
       </c>
       <c r="M49">
-        <v>-2.551999999999992</v>
+        <v>-3.536000000000001</v>
       </c>
       <c r="N49">
-        <v>-72.30999999999989</v>
+        <v>-65.03100000000023</v>
       </c>
       <c r="O49">
-        <v>0.3696004319654428</v>
+        <v>0.2897196261682243</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
@@ -2742,39 +2742,39 @@
         <v>2023</v>
       </c>
       <c r="F50">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G50">
         <v>3.3</v>
       </c>
       <c r="H50">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K50">
-        <v>-71.79599999999978</v>
+        <v>-63.28900000000007</v>
       </c>
       <c r="L50">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="M50">
-        <v>-0.7680000000000007</v>
+        <v>-2.75</v>
       </c>
       <c r="N50">
-        <v>-72.56399999999978</v>
+        <v>-66.03900000000007</v>
       </c>
       <c r="O50">
-        <v>0.1072362685265911</v>
+        <v>0.2456293706293706</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
@@ -2789,39 +2789,39 @@
         <v>2023</v>
       </c>
       <c r="F51">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G51">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H51">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I51">
+        <v>0.5</v>
+      </c>
+      <c r="J51">
         <v>0.25</v>
       </c>
-      <c r="J51">
-        <v>0.05</v>
-      </c>
       <c r="K51">
-        <v>-72.38799999999929</v>
+        <v>-62.62599999999973</v>
       </c>
       <c r="L51">
-        <v>3471</v>
+        <v>1216</v>
       </c>
       <c r="M51">
-        <v>-2.593999999999994</v>
+        <v>-3.536000000000001</v>
       </c>
       <c r="N51">
-        <v>-74.98199999999929</v>
+        <v>-66.16199999999974</v>
       </c>
       <c r="O51">
-        <v>0.4364736387208297</v>
+        <v>0.2985197368421053</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -2836,86 +2836,86 @@
         <v>2023</v>
       </c>
       <c r="F52">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G52">
-        <v>2.2</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="H52">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="I52">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>-72.35399999999984</v>
+        <v>-66.16600000000024</v>
       </c>
       <c r="L52">
-        <v>2063</v>
+        <v>1278</v>
       </c>
       <c r="M52">
         <v>-2.75</v>
       </c>
       <c r="N52">
-        <v>-75.10399999999984</v>
+        <v>-68.91600000000024</v>
       </c>
       <c r="O52">
-        <v>0.3519146873485215</v>
+        <v>0.230829420970266</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1">
+        <v>92</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>2020</v>
+      </c>
+      <c r="E53">
+        <v>2023</v>
+      </c>
+      <c r="F53">
         <v>50</v>
       </c>
-      <c r="B53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53">
-        <v>2020</v>
-      </c>
-      <c r="E53">
-        <v>2023</v>
-      </c>
-      <c r="F53">
-        <v>100</v>
-      </c>
       <c r="G53">
-        <v>1.4</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="H53">
         <v>0.35</v>
       </c>
       <c r="I53">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="J53">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K53">
-        <v>-75.54199999999989</v>
+        <v>-67.80300000000092</v>
       </c>
       <c r="L53">
-        <v>3733</v>
+        <v>6094</v>
       </c>
       <c r="M53">
         <v>-2.593999999999994</v>
       </c>
       <c r="N53">
-        <v>-78.13599999999988</v>
+        <v>-70.39700000000092</v>
       </c>
       <c r="O53">
-        <v>0.4103937851593892</v>
+        <v>0.3912044634066295</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>14</v>
@@ -2930,39 +2930,39 @@
         <v>2023</v>
       </c>
       <c r="F54">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G54">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H54">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="I54">
         <v>0.45</v>
       </c>
       <c r="J54">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="K54">
-        <v>-75.82500000000016</v>
+        <v>-69.7579999999999</v>
       </c>
       <c r="L54">
-        <v>1469</v>
+        <v>3704</v>
       </c>
       <c r="M54">
-        <v>-2.75</v>
+        <v>-2.551999999999992</v>
       </c>
       <c r="N54">
-        <v>-78.57500000000016</v>
+        <v>-72.30999999999989</v>
       </c>
       <c r="O54">
-        <v>0.3042886317222601</v>
+        <v>0.3696004319654428</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
@@ -2977,13 +2977,13 @@
         <v>2023</v>
       </c>
       <c r="F55">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="G55">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H55">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2992,24 +2992,24 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>-78.83500000000001</v>
+        <v>-71.79599999999978</v>
       </c>
       <c r="L55">
-        <v>2740</v>
+        <v>1147</v>
       </c>
       <c r="M55">
-        <v>-3.213999999999999</v>
+        <v>-0.7680000000000007</v>
       </c>
       <c r="N55">
-        <v>-82.04900000000001</v>
+        <v>-72.56399999999978</v>
       </c>
       <c r="O55">
-        <v>0.3354014598540146</v>
+        <v>0.1072362685265911</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
@@ -3024,39 +3024,39 @@
         <v>2023</v>
       </c>
       <c r="F56">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G56">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H56">
         <v>0.45</v>
       </c>
       <c r="I56">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="J56">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K56">
-        <v>-83.30500000000073</v>
+        <v>-70.90700000000109</v>
       </c>
       <c r="L56">
-        <v>4975</v>
+        <v>10651</v>
       </c>
       <c r="M56">
         <v>-2.593999999999994</v>
       </c>
       <c r="N56">
-        <v>-85.89900000000073</v>
+        <v>-73.50100000000108</v>
       </c>
       <c r="O56">
-        <v>0.4283417085427136</v>
+        <v>0.4093512346258567</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
@@ -3071,39 +3071,39 @@
         <v>2023</v>
       </c>
       <c r="F57">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G57">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H57">
         <v>0.3</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K57">
-        <v>-86.99700000000054</v>
+        <v>-72.38799999999929</v>
       </c>
       <c r="L57">
-        <v>4988</v>
+        <v>3471</v>
       </c>
       <c r="M57">
         <v>-2.593999999999994</v>
       </c>
       <c r="N57">
-        <v>-89.59100000000053</v>
+        <v>-74.98199999999929</v>
       </c>
       <c r="O57">
-        <v>0.3582598235765838</v>
+        <v>0.4364736387208297</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
@@ -3118,39 +3118,39 @@
         <v>2023</v>
       </c>
       <c r="F58">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G58">
-        <v>2.600000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="H58">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="I58">
+        <v>0.3</v>
+      </c>
+      <c r="J58">
         <v>0.2</v>
       </c>
-      <c r="J58">
-        <v>0.1</v>
-      </c>
       <c r="K58">
-        <v>-92.34899999999982</v>
+        <v>-72.35399999999984</v>
       </c>
       <c r="L58">
-        <v>1681</v>
+        <v>2063</v>
       </c>
       <c r="M58">
-        <v>-2.514999999999986</v>
+        <v>-2.75</v>
       </c>
       <c r="N58">
-        <v>-94.86399999999981</v>
+        <v>-75.10399999999984</v>
       </c>
       <c r="O58">
-        <v>0.273051754907793</v>
+        <v>0.3519146873485215</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
@@ -3165,39 +3165,39 @@
         <v>2023</v>
       </c>
       <c r="F59">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G59">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H59">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K59">
-        <v>-93.26999999999906</v>
+        <v>-75.54199999999989</v>
       </c>
       <c r="L59">
-        <v>9839</v>
+        <v>3733</v>
       </c>
       <c r="M59">
         <v>-2.593999999999994</v>
       </c>
       <c r="N59">
-        <v>-95.86399999999905</v>
+        <v>-78.13599999999988</v>
       </c>
       <c r="O59">
-        <v>0.3694481146457974</v>
+        <v>0.4103937851593892</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
@@ -3212,39 +3212,39 @@
         <v>2023</v>
       </c>
       <c r="F60">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H60">
+        <v>0.1</v>
+      </c>
+      <c r="I60">
+        <v>0.45</v>
+      </c>
+      <c r="J60">
         <v>0.05</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
       <c r="K60">
-        <v>-95.45600000000016</v>
+        <v>-75.82500000000016</v>
       </c>
       <c r="L60">
-        <v>1337</v>
+        <v>1469</v>
       </c>
       <c r="M60">
-        <v>-0.9279999999999973</v>
+        <v>-2.75</v>
       </c>
       <c r="N60">
-        <v>-96.38400000000016</v>
+        <v>-78.57500000000016</v>
       </c>
       <c r="O60">
-        <v>0.1009723261032162</v>
+        <v>0.3042886317222601</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -3259,39 +3259,39 @@
         <v>2023</v>
       </c>
       <c r="F61">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G61">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H61">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I61">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>-98.08599999999984</v>
+        <v>-78.83500000000001</v>
       </c>
       <c r="L61">
-        <v>3413</v>
+        <v>2740</v>
       </c>
       <c r="M61">
-        <v>-2.593999999999994</v>
+        <v>-3.213999999999999</v>
       </c>
       <c r="N61">
-        <v>-100.6799999999998</v>
+        <v>-82.04900000000001</v>
       </c>
       <c r="O61">
-        <v>0.3630237327864049</v>
+        <v>0.3354014598540146</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -3306,39 +3306,39 @@
         <v>2023</v>
       </c>
       <c r="F62">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G62">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H62">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="I62">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="J62">
         <v>0.1</v>
       </c>
       <c r="K62">
-        <v>-99.6110000000013</v>
+        <v>-83.30500000000073</v>
       </c>
       <c r="L62">
-        <v>4629</v>
+        <v>4975</v>
       </c>
       <c r="M62">
-        <v>-2.426999999999992</v>
+        <v>-2.593999999999994</v>
       </c>
       <c r="N62">
-        <v>-102.0380000000013</v>
+        <v>-85.89900000000073</v>
       </c>
       <c r="O62">
-        <v>0.3750270036724995</v>
+        <v>0.4283417085427136</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -3353,39 +3353,39 @@
         <v>2023</v>
       </c>
       <c r="F63">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G63">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H63">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I63">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>-99.6110000000013</v>
+        <v>-86.99700000000054</v>
       </c>
       <c r="L63">
-        <v>4629</v>
+        <v>4988</v>
       </c>
       <c r="M63">
-        <v>-2.426999999999992</v>
+        <v>-2.593999999999994</v>
       </c>
       <c r="N63">
-        <v>-102.0380000000013</v>
+        <v>-89.59100000000053</v>
       </c>
       <c r="O63">
-        <v>0.3750270036724995</v>
+        <v>0.3582598235765838</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
@@ -3400,39 +3400,39 @@
         <v>2023</v>
       </c>
       <c r="F64">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G64">
-        <v>0.7</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="H64">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="I64">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J64">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="K64">
-        <v>-106.2160000000004</v>
+        <v>-92.34899999999982</v>
       </c>
       <c r="L64">
-        <v>7617</v>
+        <v>1681</v>
       </c>
       <c r="M64">
-        <v>-2.593999999999994</v>
+        <v>-2.514999999999986</v>
       </c>
       <c r="N64">
-        <v>-108.8100000000004</v>
+        <v>-94.86399999999981</v>
       </c>
       <c r="O64">
-        <v>0.3921491400813969</v>
+        <v>0.273051754907793</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
@@ -3447,39 +3447,39 @@
         <v>2023</v>
       </c>
       <c r="F65">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G65">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H65">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I65">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>-108.9460000000004</v>
+        <v>-93.26999999999906</v>
       </c>
       <c r="L65">
-        <v>2317</v>
+        <v>9839</v>
       </c>
       <c r="M65">
-        <v>-2.478999999999985</v>
+        <v>-2.593999999999994</v>
       </c>
       <c r="N65">
-        <v>-111.4250000000004</v>
+        <v>-95.86399999999905</v>
       </c>
       <c r="O65">
-        <v>0.2516184721622788</v>
+        <v>0.3694481146457974</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
@@ -3494,39 +3494,39 @@
         <v>2023</v>
       </c>
       <c r="F66">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G66">
-        <v>0.6000000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="H66">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I66">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>-108.8370000000012</v>
+        <v>-92.99199999999983</v>
       </c>
       <c r="L66">
-        <v>8513</v>
+        <v>1978</v>
       </c>
       <c r="M66">
-        <v>-2.593999999999994</v>
+        <v>-3.330000000000013</v>
       </c>
       <c r="N66">
-        <v>-111.4310000000012</v>
+        <v>-96.32199999999985</v>
       </c>
       <c r="O66">
-        <v>0.3864677551979326</v>
+        <v>0.2891809908998989</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -3541,39 +3541,39 @@
         <v>2023</v>
       </c>
       <c r="F67">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G67">
-        <v>2.600000000000001</v>
+        <v>3</v>
       </c>
       <c r="H67">
         <v>0.05</v>
       </c>
       <c r="I67">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>-115.6700000000002</v>
+        <v>-95.45600000000016</v>
       </c>
       <c r="L67">
-        <v>1657</v>
+        <v>1337</v>
       </c>
       <c r="M67">
-        <v>-1.015000000000015</v>
+        <v>-0.9279999999999973</v>
       </c>
       <c r="N67">
-        <v>-116.6850000000002</v>
+        <v>-96.38400000000016</v>
       </c>
       <c r="O67">
-        <v>0.08811104405552203</v>
+        <v>0.1009723261032162</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
@@ -3588,39 +3588,39 @@
         <v>2023</v>
       </c>
       <c r="F68">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G68">
-        <v>0.9000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="H68">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="I68">
         <v>0.25</v>
       </c>
       <c r="J68">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K68">
-        <v>-115.8830000000001</v>
+        <v>-98.08599999999984</v>
       </c>
       <c r="L68">
-        <v>6128</v>
+        <v>3413</v>
       </c>
       <c r="M68">
         <v>-2.593999999999994</v>
       </c>
       <c r="N68">
-        <v>-118.4770000000001</v>
+        <v>-100.6799999999998</v>
       </c>
       <c r="O68">
-        <v>0.4317885117493472</v>
+        <v>0.3630237327864049</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
@@ -3635,39 +3635,39 @@
         <v>2023</v>
       </c>
       <c r="F69">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="G69">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H69">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I69">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="J69">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="K69">
-        <v>-120.5360000000004</v>
+        <v>-99.6110000000013</v>
       </c>
       <c r="L69">
-        <v>2226</v>
+        <v>4629</v>
       </c>
       <c r="M69">
-        <v>-2.540999999999997</v>
+        <v>-2.426999999999992</v>
       </c>
       <c r="N69">
-        <v>-123.0770000000004</v>
+        <v>-102.0380000000013</v>
       </c>
       <c r="O69">
-        <v>0.2520215633423181</v>
+        <v>0.3750270036724995</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -3682,39 +3682,39 @@
         <v>2023</v>
       </c>
       <c r="F70">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G70">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H70">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I70">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J70">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K70">
-        <v>-125.8019999999999</v>
+        <v>-99.6110000000013</v>
       </c>
       <c r="L70">
-        <v>1943</v>
+        <v>4629</v>
       </c>
       <c r="M70">
-        <v>-1.12700000000001</v>
+        <v>-2.426999999999992</v>
       </c>
       <c r="N70">
-        <v>-126.9289999999999</v>
+        <v>-102.0380000000013</v>
       </c>
       <c r="O70">
-        <v>0.1883685023160062</v>
+        <v>0.3750270036724995</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="1">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
@@ -3729,39 +3729,39 @@
         <v>2023</v>
       </c>
       <c r="F71">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H71">
         <v>0.35</v>
       </c>
       <c r="I71">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J71">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="K71">
-        <v>-150.6919999999993</v>
+        <v>-106.2160000000004</v>
       </c>
       <c r="L71">
-        <v>4710</v>
+        <v>7617</v>
       </c>
       <c r="M71">
-        <v>-4.062999999999988</v>
+        <v>-2.593999999999994</v>
       </c>
       <c r="N71">
-        <v>-154.7549999999993</v>
+        <v>-108.8100000000004</v>
       </c>
       <c r="O71">
-        <v>0.3267515923566879</v>
+        <v>0.3921491400813969</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
@@ -3776,39 +3776,39 @@
         <v>2023</v>
       </c>
       <c r="F72">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G72">
-        <v>0.2</v>
+        <v>2.1</v>
       </c>
       <c r="H72">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I72">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="J72">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="K72">
-        <v>-159.681</v>
+        <v>-108.9460000000004</v>
       </c>
       <c r="L72">
-        <v>12004</v>
+        <v>2317</v>
       </c>
       <c r="M72">
-        <v>-2.593999999999994</v>
+        <v>-2.478999999999985</v>
       </c>
       <c r="N72">
-        <v>-162.275</v>
+        <v>-111.4250000000004</v>
       </c>
       <c r="O72">
-        <v>0.3974508497167611</v>
+        <v>0.2516184721622788</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
@@ -3823,39 +3823,39 @@
         <v>2023</v>
       </c>
       <c r="F73">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G73">
-        <v>0.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="H73">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="I73">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="J73">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="K73">
-        <v>-166.5759999999999</v>
+        <v>-108.8370000000012</v>
       </c>
       <c r="L73">
-        <v>9860</v>
+        <v>8513</v>
       </c>
       <c r="M73">
         <v>-2.593999999999994</v>
       </c>
       <c r="N73">
-        <v>-169.1699999999999</v>
+        <v>-111.4310000000012</v>
       </c>
       <c r="O73">
-        <v>0.4340770791075051</v>
+        <v>0.3864677551979326</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="1">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
@@ -3870,39 +3870,39 @@
         <v>2023</v>
       </c>
       <c r="F74">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G74">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="I74">
+        <v>0.5</v>
+      </c>
+      <c r="J74">
         <v>0.45</v>
       </c>
-      <c r="J74">
-        <v>0.05</v>
-      </c>
       <c r="K74">
-        <v>-168.5450000000002</v>
+        <v>-108.6549999999999</v>
       </c>
       <c r="L74">
-        <v>4577</v>
+        <v>4756</v>
       </c>
       <c r="M74">
-        <v>-2.593999999999994</v>
+        <v>-3.863</v>
       </c>
       <c r="N74">
-        <v>-171.1390000000002</v>
+        <v>-112.5179999999999</v>
       </c>
       <c r="O74">
-        <v>0.3124317238365742</v>
+        <v>0.2764928511354079</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
@@ -3917,39 +3917,39 @@
         <v>2023</v>
       </c>
       <c r="F75">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G75">
-        <v>0.3</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="H75">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="I75">
         <v>0.5</v>
       </c>
       <c r="J75">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K75">
-        <v>-170.1239999999999</v>
+        <v>-115.6700000000002</v>
       </c>
       <c r="L75">
-        <v>11156</v>
+        <v>1657</v>
       </c>
       <c r="M75">
-        <v>-2.593999999999994</v>
+        <v>-1.015000000000015</v>
       </c>
       <c r="N75">
-        <v>-172.7179999999998</v>
+        <v>-116.6850000000002</v>
       </c>
       <c r="O75">
-        <v>0.3814987450699175</v>
+        <v>0.08811104405552203</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B76" t="s">
         <v>14</v>
@@ -3964,39 +3964,39 @@
         <v>2023</v>
       </c>
       <c r="F76">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G76">
-        <v>0.6000000000000001</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="H76">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="I76">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="J76">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="K76">
-        <v>-173.6279999999996</v>
+        <v>-115.8830000000001</v>
       </c>
       <c r="L76">
-        <v>6698</v>
+        <v>6128</v>
       </c>
       <c r="M76">
-        <v>-3.863</v>
+        <v>-2.593999999999994</v>
       </c>
       <c r="N76">
-        <v>-177.4909999999996</v>
+        <v>-118.4770000000001</v>
       </c>
       <c r="O76">
-        <v>0.3521946849805912</v>
+        <v>0.4317885117493472</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="B77" t="s">
         <v>14</v>
@@ -4011,39 +4011,39 @@
         <v>2023</v>
       </c>
       <c r="F77">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="G77">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H77">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="I77">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="J77">
         <v>0.25</v>
       </c>
       <c r="K77">
-        <v>-175.5970000000006</v>
+        <v>-120.5360000000004</v>
       </c>
       <c r="L77">
-        <v>3014</v>
+        <v>2226</v>
       </c>
       <c r="M77">
-        <v>-2.453000000000003</v>
+        <v>-2.540999999999997</v>
       </c>
       <c r="N77">
-        <v>-178.0500000000006</v>
+        <v>-123.0770000000004</v>
       </c>
       <c r="O77">
-        <v>0.1041804910418049</v>
+        <v>0.2520215633423181</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="1">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B78" t="s">
         <v>14</v>
@@ -4058,39 +4058,39 @@
         <v>2023</v>
       </c>
       <c r="F78">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G78">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H78">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I78">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J78">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K78">
-        <v>-183.9070000000004</v>
+        <v>-125.8019999999999</v>
       </c>
       <c r="L78">
-        <v>4577</v>
+        <v>1943</v>
       </c>
       <c r="M78">
-        <v>-2.593999999999994</v>
+        <v>-1.12700000000001</v>
       </c>
       <c r="N78">
-        <v>-186.5010000000003</v>
+        <v>-126.9289999999999</v>
       </c>
       <c r="O78">
-        <v>0.281625518898842</v>
+        <v>0.1883685023160062</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="1">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B79" t="s">
         <v>14</v>
@@ -4105,10 +4105,10 @@
         <v>2023</v>
       </c>
       <c r="F79">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G79">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H79">
         <v>0.35</v>
@@ -4117,27 +4117,27 @@
         <v>0.5</v>
       </c>
       <c r="J79">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K79">
-        <v>-193.3300000000022</v>
+        <v>-150.6919999999993</v>
       </c>
       <c r="L79">
-        <v>14304</v>
+        <v>4710</v>
       </c>
       <c r="M79">
-        <v>-2.593999999999994</v>
+        <v>-4.062999999999988</v>
       </c>
       <c r="N79">
-        <v>-195.9240000000022</v>
+        <v>-154.7549999999993</v>
       </c>
       <c r="O79">
-        <v>0.4161073825503356</v>
+        <v>0.3267515923566879</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B80" t="s">
         <v>14</v>
@@ -4152,39 +4152,39 @@
         <v>2023</v>
       </c>
       <c r="F80">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G80">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H80">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K80">
-        <v>-198.879</v>
+        <v>-159.681</v>
       </c>
       <c r="L80">
-        <v>7669</v>
+        <v>12004</v>
       </c>
       <c r="M80">
         <v>-2.593999999999994</v>
       </c>
       <c r="N80">
-        <v>-201.473</v>
+        <v>-162.275</v>
       </c>
       <c r="O80">
-        <v>0.3391576476724475</v>
+        <v>0.3974508497167611</v>
       </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="1">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="B81" t="s">
         <v>14</v>
@@ -4199,39 +4199,39 @@
         <v>2023</v>
       </c>
       <c r="F81">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G81">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H81">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I81">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="J81">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="K81">
-        <v>-207.8060000000004</v>
+        <v>-166.5759999999999</v>
       </c>
       <c r="L81">
-        <v>6671</v>
+        <v>9860</v>
       </c>
       <c r="M81">
         <v>-2.593999999999994</v>
       </c>
       <c r="N81">
-        <v>-210.4000000000003</v>
+        <v>-169.1699999999999</v>
       </c>
       <c r="O81">
-        <v>0.3317343726577724</v>
+        <v>0.4340770791075051</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="1">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B82" t="s">
         <v>14</v>
@@ -4246,39 +4246,39 @@
         <v>2023</v>
       </c>
       <c r="F82">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G82">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H82">
+        <v>0.1</v>
+      </c>
+      <c r="I82">
+        <v>0.45</v>
+      </c>
+      <c r="J82">
         <v>0.05</v>
       </c>
-      <c r="I82">
-        <v>0.3</v>
-      </c>
-      <c r="J82">
-        <v>0.2</v>
-      </c>
       <c r="K82">
-        <v>-227.1340000000001</v>
+        <v>-168.5450000000002</v>
       </c>
       <c r="L82">
-        <v>4122</v>
+        <v>4577</v>
       </c>
       <c r="M82">
         <v>-2.593999999999994</v>
       </c>
       <c r="N82">
-        <v>-229.7280000000001</v>
+        <v>-171.1390000000002</v>
       </c>
       <c r="O82">
-        <v>0.1196021348859777</v>
+        <v>0.3124317238365742</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="1">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B83" t="s">
         <v>14</v>
@@ -4293,39 +4293,39 @@
         <v>2023</v>
       </c>
       <c r="F83">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H83">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="I83">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="J83">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K83">
-        <v>-229.7600000000006</v>
+        <v>-170.1239999999999</v>
       </c>
       <c r="L83">
-        <v>5394</v>
+        <v>11156</v>
       </c>
       <c r="M83">
-        <v>-4.062999999999988</v>
+        <v>-2.593999999999994</v>
       </c>
       <c r="N83">
-        <v>-233.8230000000005</v>
+        <v>-172.7179999999998</v>
       </c>
       <c r="O83">
-        <v>0.2508342602892102</v>
+        <v>0.3814987450699175</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="1">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
         <v>14</v>
@@ -4340,39 +4340,39 @@
         <v>2023</v>
       </c>
       <c r="F84">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G84">
-        <v>1.3</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="H84">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="K84">
-        <v>-232.9230000000002</v>
+        <v>-173.6279999999996</v>
       </c>
       <c r="L84">
-        <v>4114</v>
+        <v>6698</v>
       </c>
       <c r="M84">
-        <v>-3.073000000000008</v>
+        <v>-3.863</v>
       </c>
       <c r="N84">
-        <v>-235.9960000000002</v>
+        <v>-177.4909999999996</v>
       </c>
       <c r="O84">
-        <v>0.1519202722411279</v>
+        <v>0.3521946849805912</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="1">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B85" t="s">
         <v>14</v>
@@ -4390,36 +4390,36 @@
         <v>10</v>
       </c>
       <c r="G85">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H85">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I85">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="J85">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="K85">
-        <v>-255.8840000000006</v>
+        <v>-175.5970000000006</v>
       </c>
       <c r="L85">
-        <v>6946</v>
+        <v>3014</v>
       </c>
       <c r="M85">
-        <v>-2.426999999999992</v>
+        <v>-2.453000000000003</v>
       </c>
       <c r="N85">
-        <v>-258.3110000000006</v>
+        <v>-178.0500000000006</v>
       </c>
       <c r="O85">
-        <v>0.2902389864670314</v>
+        <v>0.1041804910418049</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="1">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B86" t="s">
         <v>14</v>
@@ -4434,39 +4434,39 @@
         <v>2023</v>
       </c>
       <c r="F86">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G86">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H86">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I86">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J86">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="K86">
-        <v>-298.2629999999992</v>
+        <v>-183.9070000000004</v>
       </c>
       <c r="L86">
-        <v>7791</v>
+        <v>4577</v>
       </c>
       <c r="M86">
-        <v>-3.765999999999991</v>
+        <v>-2.593999999999994</v>
       </c>
       <c r="N86">
-        <v>-302.0289999999992</v>
+        <v>-186.5010000000003</v>
       </c>
       <c r="O86">
-        <v>0.3031703247336671</v>
+        <v>0.281625518898842</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B87" t="s">
         <v>14</v>
@@ -4481,39 +4481,39 @@
         <v>2023</v>
       </c>
       <c r="F87">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G87">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H87">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="I87">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="J87">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="K87">
-        <v>-371.0249999999991</v>
+        <v>-193.3300000000022</v>
       </c>
       <c r="L87">
-        <v>10756</v>
+        <v>14304</v>
       </c>
       <c r="M87">
         <v>-2.593999999999994</v>
       </c>
       <c r="N87">
-        <v>-373.6189999999991</v>
+        <v>-195.9240000000022</v>
       </c>
       <c r="O87">
-        <v>0.3120119003346969</v>
+        <v>0.4161073825503356</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="1">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B88" t="s">
         <v>14</v>
@@ -4528,39 +4528,39 @@
         <v>2023</v>
       </c>
       <c r="F88">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G88">
         <v>0.7</v>
       </c>
       <c r="H88">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="I88">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>-372.4850000000002</v>
+        <v>-198.879</v>
       </c>
       <c r="L88">
-        <v>7726</v>
+        <v>7669</v>
       </c>
       <c r="M88">
         <v>-2.593999999999994</v>
       </c>
       <c r="N88">
-        <v>-375.0790000000002</v>
+        <v>-201.473</v>
       </c>
       <c r="O88">
-        <v>0.2257312969194926</v>
+        <v>0.3391576476724475</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="1">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>14</v>
@@ -4575,39 +4575,39 @@
         <v>2023</v>
       </c>
       <c r="F89">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G89">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H89">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I89">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J89">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K89">
-        <v>-460.2800000000002</v>
+        <v>-207.8060000000004</v>
       </c>
       <c r="L89">
-        <v>10515</v>
+        <v>6671</v>
       </c>
       <c r="M89">
-        <v>-3.765999999999991</v>
+        <v>-2.593999999999994</v>
       </c>
       <c r="N89">
-        <v>-464.0460000000002</v>
+        <v>-210.4000000000003</v>
       </c>
       <c r="O89">
-        <v>0.1880171184022824</v>
+        <v>0.3317343726577724</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B90" t="s">
         <v>14</v>
@@ -4622,10 +4622,10 @@
         <v>2023</v>
       </c>
       <c r="F90">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G90">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H90">
         <v>0.05</v>
@@ -4637,24 +4637,24 @@
         <v>0.2</v>
       </c>
       <c r="K90">
-        <v>-486.4169999999984</v>
+        <v>-227.1340000000001</v>
       </c>
       <c r="L90">
-        <v>9838</v>
+        <v>4122</v>
       </c>
       <c r="M90">
         <v>-2.593999999999994</v>
       </c>
       <c r="N90">
-        <v>-489.0109999999984</v>
+        <v>-229.7280000000001</v>
       </c>
       <c r="O90">
-        <v>0.1298028054482618</v>
+        <v>0.1196021348859777</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="1">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="B91" t="s">
         <v>14</v>
@@ -4669,39 +4669,39 @@
         <v>2023</v>
       </c>
       <c r="F91">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G91">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="I91">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="J91">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K91">
-        <v>-702.5629999999994</v>
+        <v>-229.7600000000006</v>
       </c>
       <c r="L91">
-        <v>14642</v>
+        <v>5394</v>
       </c>
       <c r="M91">
-        <v>-2.593999999999994</v>
+        <v>-4.062999999999988</v>
       </c>
       <c r="N91">
-        <v>-705.1569999999995</v>
+        <v>-233.8230000000005</v>
       </c>
       <c r="O91">
-        <v>0.1310613304193416</v>
+        <v>0.2508342602892102</v>
       </c>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B92" t="s">
         <v>14</v>
@@ -4716,33 +4716,456 @@
         <v>2023</v>
       </c>
       <c r="F92">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G92">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H92">
         <v>0.05</v>
       </c>
       <c r="I92">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>-711.9459999999992</v>
+        <v>-232.9230000000002</v>
       </c>
       <c r="L92">
-        <v>14381</v>
+        <v>4114</v>
       </c>
       <c r="M92">
         <v>-3.073000000000008</v>
       </c>
       <c r="N92">
+        <v>-235.9960000000002</v>
+      </c>
+      <c r="O92">
+        <v>0.1519202722411279</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="1">
+        <v>75</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93">
+        <v>2020</v>
+      </c>
+      <c r="E93">
+        <v>2023</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93">
+        <v>0.8</v>
+      </c>
+      <c r="H93">
+        <v>0.1</v>
+      </c>
+      <c r="I93">
+        <v>0.45</v>
+      </c>
+      <c r="J93">
+        <v>0.1</v>
+      </c>
+      <c r="K93">
+        <v>-255.8840000000006</v>
+      </c>
+      <c r="L93">
+        <v>6946</v>
+      </c>
+      <c r="M93">
+        <v>-2.426999999999992</v>
+      </c>
+      <c r="N93">
+        <v>-258.3110000000006</v>
+      </c>
+      <c r="O93">
+        <v>0.2902389864670314</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="1">
+        <v>91</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94">
+        <v>2020</v>
+      </c>
+      <c r="E94">
+        <v>2023</v>
+      </c>
+      <c r="F94">
+        <v>50</v>
+      </c>
+      <c r="G94">
+        <v>1.1</v>
+      </c>
+      <c r="H94">
+        <v>0.05</v>
+      </c>
+      <c r="I94">
+        <v>0.2</v>
+      </c>
+      <c r="J94">
+        <v>0.15</v>
+      </c>
+      <c r="K94">
+        <v>-267.7530000000011</v>
+      </c>
+      <c r="L94">
+        <v>4989</v>
+      </c>
+      <c r="M94">
+        <v>-2.593999999999994</v>
+      </c>
+      <c r="N94">
+        <v>-270.3470000000011</v>
+      </c>
+      <c r="O94">
+        <v>0.1433152936460212</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="1">
+        <v>56</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95">
+        <v>2020</v>
+      </c>
+      <c r="E95">
+        <v>2023</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95">
+        <v>0.5</v>
+      </c>
+      <c r="H95">
+        <v>0.25</v>
+      </c>
+      <c r="I95">
+        <v>0.5</v>
+      </c>
+      <c r="J95">
+        <v>0.35</v>
+      </c>
+      <c r="K95">
+        <v>-298.2629999999992</v>
+      </c>
+      <c r="L95">
+        <v>7791</v>
+      </c>
+      <c r="M95">
+        <v>-3.765999999999991</v>
+      </c>
+      <c r="N95">
+        <v>-302.0289999999992</v>
+      </c>
+      <c r="O95">
+        <v>0.3031703247336671</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="1">
+        <v>25</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96">
+        <v>2020</v>
+      </c>
+      <c r="E96">
+        <v>2023</v>
+      </c>
+      <c r="F96">
+        <v>80</v>
+      </c>
+      <c r="G96">
+        <v>0.3</v>
+      </c>
+      <c r="H96">
+        <v>0.2</v>
+      </c>
+      <c r="I96">
+        <v>0.3</v>
+      </c>
+      <c r="J96">
+        <v>0.25</v>
+      </c>
+      <c r="K96">
+        <v>-371.0249999999991</v>
+      </c>
+      <c r="L96">
+        <v>10756</v>
+      </c>
+      <c r="M96">
+        <v>-2.593999999999994</v>
+      </c>
+      <c r="N96">
+        <v>-373.6189999999991</v>
+      </c>
+      <c r="O96">
+        <v>0.3120119003346969</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="1">
+        <v>35</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97">
+        <v>2020</v>
+      </c>
+      <c r="E97">
+        <v>2023</v>
+      </c>
+      <c r="F97">
+        <v>50</v>
+      </c>
+      <c r="G97">
+        <v>0.7</v>
+      </c>
+      <c r="H97">
+        <v>0.05</v>
+      </c>
+      <c r="I97">
+        <v>0.4</v>
+      </c>
+      <c r="J97">
+        <v>0.05</v>
+      </c>
+      <c r="K97">
+        <v>-372.4850000000002</v>
+      </c>
+      <c r="L97">
+        <v>7726</v>
+      </c>
+      <c r="M97">
+        <v>-2.593999999999994</v>
+      </c>
+      <c r="N97">
+        <v>-375.0790000000002</v>
+      </c>
+      <c r="O97">
+        <v>0.2257312969194926</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="1">
+        <v>16</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98">
+        <v>2020</v>
+      </c>
+      <c r="E98">
+        <v>2023</v>
+      </c>
+      <c r="F98">
+        <v>60</v>
+      </c>
+      <c r="G98">
+        <v>0.4</v>
+      </c>
+      <c r="H98">
+        <v>0.1</v>
+      </c>
+      <c r="I98">
+        <v>0.4</v>
+      </c>
+      <c r="J98">
+        <v>0.3</v>
+      </c>
+      <c r="K98">
+        <v>-460.2800000000002</v>
+      </c>
+      <c r="L98">
+        <v>10515</v>
+      </c>
+      <c r="M98">
+        <v>-3.765999999999991</v>
+      </c>
+      <c r="N98">
+        <v>-464.0460000000002</v>
+      </c>
+      <c r="O98">
+        <v>0.1880171184022824</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="1">
+        <v>49</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99">
+        <v>2020</v>
+      </c>
+      <c r="E99">
+        <v>2023</v>
+      </c>
+      <c r="F99">
+        <v>70</v>
+      </c>
+      <c r="G99">
+        <v>0.5</v>
+      </c>
+      <c r="H99">
+        <v>0.05</v>
+      </c>
+      <c r="I99">
+        <v>0.3</v>
+      </c>
+      <c r="J99">
+        <v>0.2</v>
+      </c>
+      <c r="K99">
+        <v>-486.4169999999984</v>
+      </c>
+      <c r="L99">
+        <v>9838</v>
+      </c>
+      <c r="M99">
+        <v>-2.593999999999994</v>
+      </c>
+      <c r="N99">
+        <v>-489.0109999999984</v>
+      </c>
+      <c r="O99">
+        <v>0.1298028054482618</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="1">
+        <v>15</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100">
+        <v>2020</v>
+      </c>
+      <c r="E100">
+        <v>2023</v>
+      </c>
+      <c r="F100">
+        <v>60</v>
+      </c>
+      <c r="G100">
+        <v>0.2</v>
+      </c>
+      <c r="H100">
+        <v>0.05</v>
+      </c>
+      <c r="I100">
+        <v>0.4</v>
+      </c>
+      <c r="J100">
+        <v>0.2</v>
+      </c>
+      <c r="K100">
+        <v>-702.5629999999994</v>
+      </c>
+      <c r="L100">
+        <v>14642</v>
+      </c>
+      <c r="M100">
+        <v>-2.593999999999994</v>
+      </c>
+      <c r="N100">
+        <v>-705.1569999999995</v>
+      </c>
+      <c r="O100">
+        <v>0.1310613304193416</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="1">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101">
+        <v>2020</v>
+      </c>
+      <c r="E101">
+        <v>2023</v>
+      </c>
+      <c r="F101">
+        <v>50</v>
+      </c>
+      <c r="G101">
+        <v>0.2</v>
+      </c>
+      <c r="H101">
+        <v>0.05</v>
+      </c>
+      <c r="I101">
+        <v>0.35</v>
+      </c>
+      <c r="J101">
+        <v>0.3</v>
+      </c>
+      <c r="K101">
+        <v>-711.9459999999992</v>
+      </c>
+      <c r="L101">
+        <v>14381</v>
+      </c>
+      <c r="M101">
+        <v>-3.073000000000008</v>
+      </c>
+      <c r="N101">
         <v>-715.0189999999992</v>
       </c>
-      <c r="O92">
+      <c r="O101">
         <v>0.1028440303177804</v>
       </c>
     </row>
